--- a/data/trans_orig/P36B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A6C5CF-0F72-45D8-AD0A-5EF000FD2DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{229D9165-09F3-415D-8611-D2B95460D790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C46BFC49-8393-4B4A-ABA0-93A3B1234D20}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EAEFCE3-20E9-40AE-A0FC-6090C0CDF2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1092">
   <si>
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2007 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -1267,7 +1267,130 @@
     <t>Población según la frecuencia de consumo de embutidos y fiambres en 2012 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>8,28%</t>
@@ -1465,9 +1588,6 @@
     <t>37,09%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
     <t>20,12%</t>
   </si>
   <si>
@@ -1477,9 +1597,6 @@
     <t>13,08%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
     <t>17,55%</t>
   </si>
   <si>
@@ -1513,1669 +1630,1651 @@
     <t>6,94%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de embutidos y fiambres en 2016 (Tasa respuesta: 99,7%)</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
   </si>
   <si>
     <t>29,05%</t>
@@ -3626,7 +3725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FD0F09-85BE-4AF7-863B-EB811DD89CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FD1A25-B04D-4C04-972A-2EDF23C43146}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5697,7 +5796,7 @@
         <v>170</v>
       </c>
       <c r="D42" s="7">
-        <v>176432</v>
+        <v>176433</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>299</v>
@@ -5712,7 +5811,7 @@
         <v>268</v>
       </c>
       <c r="I42" s="7">
-        <v>278355</v>
+        <v>278356</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>302</v>
@@ -5799,7 +5898,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="7">
-        <v>147459</v>
+        <v>147460</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>316</v>
@@ -5850,7 +5949,7 @@
         <v>595</v>
       </c>
       <c r="D45" s="7">
-        <v>612168</v>
+        <v>612169</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>59</v>
@@ -5865,7 +5964,7 @@
         <v>618</v>
       </c>
       <c r="I45" s="7">
-        <v>636092</v>
+        <v>636093</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>59</v>
@@ -6496,7 +6595,7 @@
         <v>6494</v>
       </c>
       <c r="N57" s="7">
-        <v>6638284</v>
+        <v>6638285</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>59</v>
@@ -6534,7 +6633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33A7CC-D555-470A-AE70-72F6A2329D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C602C213-848E-4A63-8E00-D6E48C17A3C2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6652,43 +6751,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50642</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I4" s="7">
+        <v>88711</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="N4" s="7">
+        <v>139353</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,43 +6802,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57537</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="I5" s="7">
+        <v>59295</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>409</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="N5" s="7">
+        <v>116832</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,43 +6853,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87066</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="I6" s="7">
+        <v>77527</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="N6" s="7">
+        <v>164592</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,43 +6904,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50519</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="7">
+        <v>35152</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="N7" s="7">
+        <v>85671</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,43 +6955,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44531</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I8" s="7">
+        <v>25547</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="N8" s="7">
+        <v>70077</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,43 +7006,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D9" s="7">
+        <v>290295</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I9" s="7">
+        <v>286231</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="N9" s="7">
+        <v>576526</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +7065,13 @@
         <v>41870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6945,13 +7080,13 @@
         <v>53711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -6960,13 +7095,13 @@
         <v>95581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +7116,13 @@
         <v>64271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -6996,13 +7131,13 @@
         <v>88364</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -7014,10 +7149,10 @@
         <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7167,13 @@
         <v>122410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -7047,13 +7182,13 @@
         <v>130760</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>237</v>
@@ -7062,13 +7197,13 @@
         <v>253170</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7218,13 @@
         <v>118636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -7098,13 +7233,13 @@
         <v>117618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>219</v>
@@ -7113,13 +7248,13 @@
         <v>236254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7269,13 @@
         <v>158340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -7149,13 +7284,13 @@
         <v>131127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -7164,13 +7299,13 @@
         <v>289467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7373,13 @@
         <v>7076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7256,10 +7391,10 @@
         <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -7268,10 +7403,10 @@
         <v>34689</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>116</v>
@@ -7289,13 +7424,13 @@
         <v>87050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -7304,13 +7439,13 @@
         <v>135693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7">
         <v>207</v>
@@ -7319,13 +7454,13 @@
         <v>222743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,10 +7478,10 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -7355,13 +7490,13 @@
         <v>119588</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -7370,13 +7505,13 @@
         <v>218370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7526,13 @@
         <v>79704</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7406,13 +7541,13 @@
         <v>44050</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -7421,10 +7556,10 @@
         <v>123753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>336</v>
@@ -7442,13 +7577,13 @@
         <v>49229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -7457,13 +7592,13 @@
         <v>9853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -7472,10 +7607,10 @@
         <v>59082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>54</v>
@@ -7540,49 +7675,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>93922</v>
+        <v>43280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>164788</v>
+        <v>76077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>258711</v>
+        <v>119357</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,49 +7726,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7">
-        <v>171755</v>
+        <v>114217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="H23" s="7">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="I23" s="7">
-        <v>206872</v>
+        <v>147578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="N23" s="7">
-        <v>378627</v>
+        <v>261795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,49 +7777,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
-        <v>181492</v>
+        <v>94427</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="H24" s="7">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="I24" s="7">
-        <v>179450</v>
+        <v>101923</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="M24" s="7">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="N24" s="7">
-        <v>360942</v>
+        <v>196350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,49 +7828,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7">
-        <v>139008</v>
+        <v>88489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>83018</v>
+        <v>47866</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="N25" s="7">
-        <v>222026</v>
+        <v>136355</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,49 +7879,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7">
-        <v>76149</v>
+        <v>31618</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>565</v>
       </c>
       <c r="H26" s="7">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>38998</v>
+        <v>13451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="M26" s="7">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N26" s="7">
-        <v>115147</v>
+        <v>45069</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>62</v>
+        <v>569</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,10 +7930,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>621</v>
+        <v>342</v>
       </c>
       <c r="D27" s="7">
-        <v>662326</v>
+        <v>372031</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7810,10 +7945,10 @@
         <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>624</v>
+        <v>369</v>
       </c>
       <c r="I27" s="7">
-        <v>673126</v>
+        <v>386895</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7825,10 +7960,10 @@
         <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>1245</v>
+        <v>711</v>
       </c>
       <c r="N27" s="7">
-        <v>1335452</v>
+        <v>758926</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -7854,13 +7989,13 @@
         <v>27224</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -7869,13 +8004,13 @@
         <v>27458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -7884,13 +8019,13 @@
         <v>54682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,10 +8043,10 @@
         <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -7920,13 +8055,13 @@
         <v>63151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>104</v>
@@ -7935,13 +8070,13 @@
         <v>107155</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,13 +8091,13 @@
         <v>61533</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -7971,13 +8106,13 @@
         <v>80272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -7986,13 +8121,13 @@
         <v>141805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,13 +8142,13 @@
         <v>70561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -8022,13 +8157,13 @@
         <v>38388</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>
@@ -8037,13 +8172,13 @@
         <v>108949</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8193,7 @@
         <v>9296</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>113</v>
@@ -8073,13 +8208,13 @@
         <v>7297</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -8088,10 +8223,10 @@
         <v>16593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>243</v>
@@ -8162,13 +8297,13 @@
         <v>5043</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -8177,13 +8312,13 @@
         <v>15050</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="M34" s="7">
         <v>19</v>
@@ -8192,13 +8327,13 @@
         <v>20093</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8348,13 @@
         <v>73256</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="H35" s="7">
         <v>91</v>
@@ -8228,13 +8363,13 @@
         <v>93774</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="M35" s="7">
         <v>161</v>
@@ -8243,13 +8378,13 @@
         <v>167029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8399,13 @@
         <v>103451</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="H36" s="7">
         <v>108</v>
@@ -8279,13 +8414,13 @@
         <v>114327</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="M36" s="7">
         <v>206</v>
@@ -8294,13 +8429,13 @@
         <v>217779</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8450,13 @@
         <v>60547</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="H37" s="7">
         <v>41</v>
@@ -8330,13 +8465,13 @@
         <v>41876</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="M37" s="7">
         <v>99</v>
@@ -8345,13 +8480,13 @@
         <v>102423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>608</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8366,13 +8501,13 @@
         <v>31684</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="H38" s="7">
         <v>13</v>
@@ -8381,13 +8516,13 @@
         <v>12901</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="M38" s="7">
         <v>43</v>
@@ -8399,7 +8534,7 @@
         <v>297</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>165</v>
@@ -8470,10 +8605,10 @@
         <v>41170</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>62</v>
@@ -8485,13 +8620,13 @@
         <v>63296</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="M40" s="7">
         <v>94</v>
@@ -8500,13 +8635,13 @@
         <v>104466</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>530</v>
+        <v>656</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8656,13 @@
         <v>172788</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>501</v>
+        <v>660</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="H41" s="7">
         <v>211</v>
@@ -8536,13 +8671,13 @@
         <v>230615</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="M41" s="7">
         <v>358</v>
@@ -8551,13 +8686,13 @@
         <v>403403</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8707,13 @@
         <v>214316</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="H42" s="7">
         <v>244</v>
@@ -8587,13 +8722,13 @@
         <v>266773</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>387</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="M42" s="7">
         <v>448</v>
@@ -8602,13 +8737,13 @@
         <v>481089</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,13 +8758,13 @@
         <v>143811</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>635</v>
+        <v>673</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -8638,13 +8773,13 @@
         <v>73838</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>638</v>
+        <v>676</v>
       </c>
       <c r="M43" s="7">
         <v>211</v>
@@ -8653,13 +8788,13 @@
         <v>217649</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>276</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,10 +8812,10 @@
         <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>641</v>
+        <v>679</v>
       </c>
       <c r="H44" s="7">
         <v>48</v>
@@ -8689,13 +8824,13 @@
         <v>51246</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="M44" s="7">
         <v>131</v>
@@ -8704,13 +8839,13 @@
         <v>135983</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8778,13 +8913,13 @@
         <v>23578</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="H46" s="7">
         <v>42</v>
@@ -8793,10 +8928,10 @@
         <v>46565</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>288</v>
@@ -8808,13 +8943,13 @@
         <v>70143</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8829,13 +8964,13 @@
         <v>85961</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="H47" s="7">
         <v>131</v>
@@ -8844,13 +8979,13 @@
         <v>142559</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="M47" s="7">
         <v>207</v>
@@ -8862,7 +8997,7 @@
         <v>321</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>406</v>
@@ -8880,13 +9015,13 @@
         <v>251479</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="H48" s="7">
         <v>219</v>
@@ -8895,13 +9030,13 @@
         <v>244153</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>663</v>
+        <v>700</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>664</v>
+        <v>701</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="M48" s="7">
         <v>454</v>
@@ -8910,13 +9045,13 @@
         <v>495633</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8931,13 +9066,13 @@
         <v>322543</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="H49" s="7">
         <v>281</v>
@@ -8946,13 +9081,13 @@
         <v>301621</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>672</v>
+        <v>709</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="M49" s="7">
         <v>577</v>
@@ -8961,13 +9096,13 @@
         <v>624164</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>676</v>
+        <v>713</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8982,13 +9117,13 @@
         <v>91359</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="H50" s="7">
         <v>83</v>
@@ -9000,10 +9135,10 @@
         <v>403</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="M50" s="7">
         <v>167</v>
@@ -9012,13 +9147,13 @@
         <v>179251</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>683</v>
+        <v>720</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>684</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9086,13 +9221,13 @@
         <v>239885</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="H52" s="7">
         <v>363</v>
@@ -9101,13 +9236,13 @@
         <v>398481</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>687</v>
+        <v>724</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="M52" s="7">
         <v>583</v>
@@ -9116,13 +9251,13 @@
         <v>638365</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>691</v>
+        <v>531</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9137,13 +9272,13 @@
         <v>699084</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="H53" s="7">
         <v>899</v>
@@ -9152,13 +9287,13 @@
         <v>961028</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="M53" s="7">
         <v>1534</v>
@@ -9170,10 +9305,10 @@
         <v>187</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9188,13 +9323,13 @@
         <v>1033464</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="H54" s="7">
         <v>1044</v>
@@ -9203,28 +9338,28 @@
         <v>1135323</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="M54" s="7">
         <v>2025</v>
       </c>
       <c r="N54" s="7">
-        <v>2168787</v>
+        <v>2168788</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,13 +9374,13 @@
         <v>934809</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="H55" s="7">
         <v>656</v>
@@ -9254,13 +9389,13 @@
         <v>700408</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>713</v>
+        <v>418</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="M55" s="7">
         <v>1535</v>
@@ -9269,13 +9404,13 @@
         <v>1635217</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9425,13 @@
         <v>500795</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="H56" s="7">
         <v>316</v>
@@ -9305,28 +9440,28 @@
         <v>339314</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="M56" s="7">
         <v>793</v>
       </c>
       <c r="N56" s="7">
-        <v>840108</v>
+        <v>840109</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>298</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,7 +9473,7 @@
         <v>3192</v>
       </c>
       <c r="D57" s="7">
-        <v>3408036</v>
+        <v>3408037</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>59</v>
@@ -9368,7 +9503,7 @@
         <v>6470</v>
       </c>
       <c r="N57" s="7">
-        <v>6942590</v>
+        <v>6942591</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>59</v>
@@ -9406,7 +9541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586A2F33-048A-43DC-BC7F-F32B87C67DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A154B3-AE71-41A9-ACE2-EDFEBC74F46E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9423,7 +9558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9530,10 +9665,10 @@
         <v>58885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>96</v>
@@ -9545,13 +9680,13 @@
         <v>64903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="M4" s="7">
         <v>114</v>
@@ -9563,10 +9698,10 @@
         <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9716,13 @@
         <v>54475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="H5" s="7">
         <v>61</v>
@@ -9596,13 +9731,13 @@
         <v>64353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -9611,13 +9746,13 @@
         <v>118828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9767,13 @@
         <v>98041</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>742</v>
+        <v>777</v>
       </c>
       <c r="H6" s="7">
         <v>93</v>
@@ -9647,13 +9782,13 @@
         <v>96052</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>744</v>
+        <v>779</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="M6" s="7">
         <v>182</v>
@@ -9662,13 +9797,13 @@
         <v>194093</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,10 +9821,10 @@
         <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>749</v>
+        <v>784</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -9698,13 +9833,13 @@
         <v>38237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -9713,13 +9848,13 @@
         <v>97864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9734,13 +9869,13 @@
         <v>20544</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -9749,10 +9884,10 @@
         <v>24278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>124</v>
@@ -9764,13 +9899,13 @@
         <v>44821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9973,13 @@
         <v>11179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -9853,13 +9988,13 @@
         <v>14415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -9868,13 +10003,13 @@
         <v>25594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9889,13 +10024,13 @@
         <v>44608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -9907,10 +10042,10 @@
         <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -9919,13 +10054,13 @@
         <v>124083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9940,13 +10075,13 @@
         <v>172519</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>780</v>
+        <v>545</v>
       </c>
       <c r="H12" s="7">
         <v>169</v>
@@ -9958,10 +10093,10 @@
         <v>387</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="M12" s="7">
         <v>330</v>
@@ -9970,13 +10105,13 @@
         <v>356113</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9994,10 +10129,10 @@
         <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -10006,13 +10141,13 @@
         <v>176684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -10021,13 +10156,13 @@
         <v>350618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,13 +10177,13 @@
         <v>99471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -10057,13 +10192,13 @@
         <v>66820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="M14" s="7">
         <v>158</v>
@@ -10072,13 +10207,13 @@
         <v>166291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10146,10 +10281,10 @@
         <v>5008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>153</v>
@@ -10161,13 +10296,13 @@
         <v>15667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -10176,13 +10311,13 @@
         <v>20675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,10 +10332,10 @@
         <v>30824</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>380</v>
@@ -10212,13 +10347,13 @@
         <v>62527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -10227,13 +10362,13 @@
         <v>93351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>816</v>
+        <v>850</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>818</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,13 +10383,13 @@
         <v>93684</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -10269,7 +10404,7 @@
         <v>139</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="M18" s="7">
         <v>204</v>
@@ -10278,10 +10413,10 @@
         <v>199198</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>823</v>
+        <v>856</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>824</v>
+        <v>857</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>183</v>
@@ -10299,13 +10434,13 @@
         <v>143533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -10314,13 +10449,13 @@
         <v>121390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="M19" s="7">
         <v>274</v>
@@ -10329,13 +10464,13 @@
         <v>264924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10485,13 @@
         <v>44594</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -10365,13 +10500,13 @@
         <v>31211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -10380,13 +10515,13 @@
         <v>75805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10454,13 +10589,13 @@
         <v>48507</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>842</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -10469,10 +10604,10 @@
         <v>76616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>45</v>
@@ -10487,7 +10622,7 @@
         <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>70</v>
@@ -10505,13 +10640,13 @@
         <v>88292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="H23" s="7">
         <v>114</v>
@@ -10520,13 +10655,13 @@
         <v>124008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="M23" s="7">
         <v>200</v>
@@ -10535,13 +10670,13 @@
         <v>212300</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>852</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>854</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10691,13 @@
         <v>127454</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>855</v>
+        <v>886</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="H24" s="7">
         <v>109</v>
@@ -10571,13 +10706,13 @@
         <v>116656</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="M24" s="7">
         <v>231</v>
@@ -10589,10 +10724,10 @@
         <v>391</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,13 +10742,13 @@
         <v>72179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>863</v>
+        <v>894</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -10622,13 +10757,13 @@
         <v>51085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>867</v>
+        <v>898</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -10637,13 +10772,13 @@
         <v>123264</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>869</v>
+        <v>900</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>870</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10658,13 +10793,13 @@
         <v>32577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -10673,13 +10808,13 @@
         <v>16781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -10688,13 +10823,13 @@
         <v>49358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10765,10 +10900,10 @@
         <v>247</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>877</v>
+        <v>908</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>878</v>
+        <v>909</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -10777,13 +10912,13 @@
         <v>9368</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>879</v>
+        <v>910</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>880</v>
+        <v>911</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>881</v>
+        <v>912</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -10792,13 +10927,13 @@
         <v>18786</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>882</v>
+        <v>913</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>883</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10813,13 +10948,13 @@
         <v>72849</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>884</v>
+        <v>915</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>885</v>
+        <v>916</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -10831,10 +10966,10 @@
         <v>279</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>887</v>
+        <v>918</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>888</v>
+        <v>919</v>
       </c>
       <c r="M29" s="7">
         <v>127</v>
@@ -10843,13 +10978,13 @@
         <v>124349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>890</v>
+        <v>921</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>891</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10864,13 +10999,13 @@
         <v>94632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>892</v>
+        <v>923</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>894</v>
+        <v>925</v>
       </c>
       <c r="H30" s="7">
         <v>127</v>
@@ -10879,13 +11014,13 @@
         <v>123955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="M30" s="7">
         <v>221</v>
@@ -10894,13 +11029,13 @@
         <v>218586</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>898</v>
+        <v>929</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>899</v>
+        <v>930</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10915,7 +11050,7 @@
         <v>30341</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>900</v>
+        <v>931</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>326</v>
@@ -10930,13 +11065,13 @@
         <v>31909</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>901</v>
+        <v>932</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -10945,13 +11080,13 @@
         <v>62250</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>905</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10966,13 +11101,13 @@
         <v>3981</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10981,13 +11116,13 @@
         <v>1855</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>908</v>
+        <v>939</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>909</v>
+        <v>940</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -10996,13 +11131,13 @@
         <v>5836</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>910</v>
+        <v>941</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>911</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11070,13 +11205,13 @@
         <v>31282</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>912</v>
+        <v>943</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>913</v>
+        <v>944</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>914</v>
+        <v>945</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -11085,13 +11220,13 @@
         <v>51011</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>915</v>
+        <v>946</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="M34" s="7">
         <v>78</v>
@@ -11100,13 +11235,13 @@
         <v>82294</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>918</v>
+        <v>438</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11124,10 +11259,10 @@
         <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>919</v>
+        <v>949</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="H35" s="7">
         <v>73</v>
@@ -11136,10 +11271,10 @@
         <v>74043</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>921</v>
+        <v>951</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>255</v>
@@ -11151,13 +11286,13 @@
         <v>117756</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>922</v>
+        <v>952</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>923</v>
+        <v>953</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11172,13 +11307,13 @@
         <v>127305</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="H36" s="7">
         <v>101</v>
@@ -11187,13 +11322,13 @@
         <v>105664</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>927</v>
+        <v>957</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>928</v>
+        <v>958</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>929</v>
+        <v>959</v>
       </c>
       <c r="M36" s="7">
         <v>224</v>
@@ -11202,13 +11337,13 @@
         <v>232968</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>931</v>
+        <v>961</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>932</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11223,13 +11358,13 @@
         <v>35609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>933</v>
+        <v>963</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>965</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -11238,13 +11373,13 @@
         <v>26056</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>935</v>
+        <v>966</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>936</v>
+        <v>967</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
@@ -11253,13 +11388,13 @@
         <v>61666</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>526</v>
+        <v>969</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11274,13 +11409,13 @@
         <v>25214</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>939</v>
+        <v>971</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>940</v>
+        <v>972</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -11289,13 +11424,13 @@
         <v>16341</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -11304,13 +11439,13 @@
         <v>41555</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11378,13 +11513,13 @@
         <v>31830</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="H40" s="7">
         <v>55</v>
@@ -11393,13 +11528,13 @@
         <v>59656</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>950</v>
+        <v>982</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="M40" s="7">
         <v>82</v>
@@ -11408,13 +11543,13 @@
         <v>91486</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>954</v>
+        <v>986</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>955</v>
+        <v>987</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11429,13 +11564,13 @@
         <v>84030</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>956</v>
+        <v>988</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>957</v>
+        <v>989</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
       <c r="H41" s="7">
         <v>109</v>
@@ -11444,13 +11579,13 @@
         <v>121367</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
       <c r="M41" s="7">
         <v>186</v>
@@ -11459,13 +11594,13 @@
         <v>205397</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>962</v>
+        <v>994</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11480,13 +11615,13 @@
         <v>224196</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
       <c r="H42" s="7">
         <v>233</v>
@@ -11495,13 +11630,13 @@
         <v>245122</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
       <c r="M42" s="7">
         <v>428</v>
@@ -11510,13 +11645,13 @@
         <v>469318</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>971</v>
+        <v>1003</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>972</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11531,13 +11666,13 @@
         <v>203121</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>975</v>
+        <v>1007</v>
       </c>
       <c r="H43" s="7">
         <v>170</v>
@@ -11546,13 +11681,13 @@
         <v>184184</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
       <c r="M43" s="7">
         <v>348</v>
@@ -11561,13 +11696,13 @@
         <v>387305</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>979</v>
+        <v>1011</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>980</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11582,13 +11717,13 @@
         <v>110016</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
       <c r="H44" s="7">
         <v>75</v>
@@ -11597,13 +11732,13 @@
         <v>76689</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>983</v>
+        <v>1015</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>984</v>
+        <v>1016</v>
       </c>
       <c r="M44" s="7">
         <v>175</v>
@@ -11612,13 +11747,13 @@
         <v>186704</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>986</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11686,13 +11821,13 @@
         <v>20999</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>987</v>
+        <v>1019</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>988</v>
+        <v>1020</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
       <c r="H46" s="7">
         <v>29</v>
@@ -11701,13 +11836,13 @@
         <v>32468</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -11716,13 +11851,13 @@
         <v>53467</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11737,13 +11872,13 @@
         <v>134287</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="H47" s="7">
         <v>198</v>
@@ -11752,13 +11887,13 @@
         <v>216205</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="M47" s="7">
         <v>327</v>
@@ -11767,10 +11902,10 @@
         <v>350492</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>392</v>
@@ -11788,13 +11923,13 @@
         <v>368584</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="H48" s="7">
         <v>330</v>
@@ -11803,13 +11938,13 @@
         <v>360108</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="M48" s="7">
         <v>688</v>
@@ -11818,13 +11953,13 @@
         <v>728692</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11839,13 +11974,13 @@
         <v>207843</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1012</v>
+        <v>1044</v>
       </c>
       <c r="H49" s="7">
         <v>170</v>
@@ -11854,13 +11989,13 @@
         <v>188474</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1013</v>
+        <v>1045</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1014</v>
+        <v>1046</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
       <c r="M49" s="7">
         <v>371</v>
@@ -11869,13 +12004,13 @@
         <v>396317</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>501</v>
+        <v>660</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11890,13 +12025,13 @@
         <v>43805</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
       <c r="H50" s="7">
         <v>27</v>
@@ -11905,13 +12040,13 @@
         <v>27753</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
       <c r="M50" s="7">
         <v>67</v>
@@ -11920,13 +12055,13 @@
         <v>71558</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11997,7 +12132,7 @@
         <v>360</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>369</v>
@@ -12009,13 +12144,13 @@
         <v>324104</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
       <c r="M52" s="7">
         <v>498</v>
@@ -12024,13 +12159,13 @@
         <v>541213</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12045,13 +12180,13 @@
         <v>553076</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
       <c r="H53" s="7">
         <v>739</v>
@@ -12060,13 +12195,13 @@
         <v>793479</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
       <c r="M53" s="7">
         <v>1274</v>
@@ -12075,13 +12210,13 @@
         <v>1346555</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12096,13 +12231,13 @@
         <v>1306412</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
       <c r="H54" s="7">
         <v>1267</v>
@@ -12111,10 +12246,10 @@
         <v>1336665</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>261</v>
@@ -12126,10 +12261,10 @@
         <v>2643077</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>261</v>
@@ -12147,13 +12282,13 @@
         <v>926188</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>507</v>
+        <v>1078</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="H55" s="7">
         <v>771</v>
@@ -12162,13 +12297,13 @@
         <v>818019</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>1047</v>
+        <v>1080</v>
       </c>
       <c r="M55" s="7">
         <v>1657</v>
@@ -12177,13 +12312,13 @@
         <v>1744207</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1048</v>
+        <v>1081</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12198,13 +12333,13 @@
         <v>380201</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1053</v>
+        <v>1086</v>
       </c>
       <c r="H56" s="7">
         <v>254</v>
@@ -12213,13 +12348,13 @@
         <v>261728</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1054</v>
+        <v>1087</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1055</v>
+        <v>1088</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="M56" s="7">
         <v>612</v>
@@ -12228,13 +12363,13 @@
         <v>641929</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
